--- a/fuentes/contenidos/grado06/guion05/LE_06_05_REC200_SolicitudGrafica.xlsx
+++ b/fuentes/contenidos/grado06/guion05/LE_06_05_REC200_SolicitudGrafica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris\Documents\PLANETA\NUEVO\GUIONES\LE_06_05_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris\Documents\GitHub\Lenguaje\fuentes\contenidos\grado06\guion05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
@@ -1550,6 +1550,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1648,7 +1649,6 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -2487,7 +2487,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2533,14 +2533,14 @@
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="F2" s="78" t="s">
+      <c r="D2" s="87"/>
+      <c r="F2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="79"/>
+      <c r="G2" s="80"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
@@ -2564,14 +2564,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="88">
         <v>6</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="F3" s="80">
-        <v>42412</v>
-      </c>
-      <c r="G3" s="81"/>
+      <c r="D3" s="89"/>
+      <c r="F3" s="81">
+        <v>42424</v>
+      </c>
+      <c r="G3" s="82"/>
       <c r="H3" s="58"/>
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
@@ -2595,10 +2595,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
         <v>55</v>
@@ -2627,10 +2627,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="90"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2714,12 +2714,12 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
       <c r="J8" s="16"/>
       <c r="K8" s="11"/>
       <c r="M8" s="2" t="str">
@@ -2780,7 +2780,7 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="109">
+      <c r="B10" s="78">
         <v>77450803</v>
       </c>
       <c r="C10" s="20" t="str">
@@ -5982,25 +5982,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -6008,11 +6008,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="32"/>
       <c r="H3" s="22" t="s">
         <v>18</v>
@@ -6063,11 +6063,11 @@
       <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="105" t="str">
+      <c r="D5" s="106" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="106"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="32"/>
       <c r="H5" s="22" t="s">
         <v>22</v>
@@ -6112,12 +6112,12 @@
       <c r="C7" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="91" t="str">
+      <c r="D7" s="92" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93"/>
       <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
@@ -6211,14 +6211,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
       <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
@@ -6251,12 +6251,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
       <c r="J15" s="22">
         <v>12</v>
       </c>
@@ -6296,12 +6296,12 @@
       <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="99" t="str">
+      <c r="D17" s="100" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
       <c r="J17" s="22">
         <v>14</v>
       </c>
@@ -6317,12 +6317,12 @@
       <c r="C18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="91" t="str">
+      <c r="D18" s="92" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
       <c r="J18" s="22">
         <v>15</v>
       </c>
@@ -6713,40 +6713,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="107"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="39" t="s">
         <v>65</v>
       </c>
